--- a/test econo.xlsx
+++ b/test econo.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="178">
   <si>
     <t>Login</t>
   </si>
@@ -564,9 +564,6 @@
   <si>
     <t>Revisar datos</t>
   </si>
-  <si>
-    <t>No se puede editar la ultima tarjeta agregada</t>
-  </si>
 </sst>
 </file>
 
@@ -967,92 +964,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="748">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="738">
     <dxf>
       <font>
         <color auto="1"/>
@@ -11407,1450 +11319,1450 @@
     <mergeCell ref="B26:B31"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F9 F14 F17 F26:F27 F38 F46 F50 F55 F66:F67 F125 F69:F72 F85:F87 F129 F142:F144 F159 F199:F200 F178 F205:F206 F217:F218 F222 F228">
-    <cfRule type="notContainsText" dxfId="747" priority="369" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="737" priority="369" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="746" priority="371" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="736" priority="371" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="notContainsText" dxfId="745" priority="367" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="735" priority="367" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F10))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="744" priority="368" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="734" priority="368" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="notContainsText" dxfId="743" priority="365" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="733" priority="365" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F11))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="742" priority="366" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="732" priority="366" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="notContainsText" dxfId="741" priority="363" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="731" priority="363" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F12))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="740" priority="364" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="730" priority="364" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="notContainsText" dxfId="739" priority="361" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="729" priority="361" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F13))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="738" priority="362" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="728" priority="362" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="notContainsText" dxfId="737" priority="359" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="727" priority="359" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F15))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="736" priority="360" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="726" priority="360" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="notContainsText" dxfId="735" priority="357" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="725" priority="357" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F16))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="734" priority="358" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="724" priority="358" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="notContainsText" dxfId="733" priority="355" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="723" priority="355" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F18))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="732" priority="356" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="722" priority="356" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="notContainsText" dxfId="731" priority="353" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="721" priority="353" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F20))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="730" priority="354" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="720" priority="354" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="notContainsText" dxfId="729" priority="351" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="719" priority="351" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F21))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="728" priority="352" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="718" priority="352" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="notContainsText" dxfId="727" priority="349" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="717" priority="349" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F24))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="726" priority="350" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="716" priority="350" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="notContainsText" dxfId="725" priority="347" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="715" priority="347" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F19))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="724" priority="348" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="714" priority="348" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="notContainsText" dxfId="723" priority="345" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="713" priority="345" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F22))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="722" priority="346" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="712" priority="346" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="notContainsText" dxfId="721" priority="343" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="711" priority="343" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F23))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="720" priority="344" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="710" priority="344" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="notContainsText" dxfId="719" priority="341" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="709" priority="341" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F25))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="718" priority="342" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="708" priority="342" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="notContainsText" dxfId="717" priority="339" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="707" priority="339" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F28))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="716" priority="340" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="706" priority="340" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="notContainsText" dxfId="715" priority="337" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="705" priority="337" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F29))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="714" priority="338" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="704" priority="338" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="notContainsText" dxfId="713" priority="335" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="703" priority="335" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F30))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="712" priority="336" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="702" priority="336" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="notContainsText" dxfId="711" priority="333" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="701" priority="333" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F31))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="710" priority="334" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="700" priority="334" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="notContainsText" dxfId="709" priority="331" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="699" priority="331" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F32))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="708" priority="332" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="698" priority="332" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="notContainsText" dxfId="707" priority="329" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="697" priority="329" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F33))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="706" priority="330" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="696" priority="330" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="notContainsText" dxfId="705" priority="327" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="695" priority="327" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F34))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="704" priority="328" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="694" priority="328" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="notContainsText" dxfId="703" priority="325" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="693" priority="325" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F35))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="702" priority="326" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="692" priority="326" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="notContainsText" dxfId="701" priority="323" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="691" priority="323" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F36))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="700" priority="324" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="690" priority="324" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="notContainsText" dxfId="699" priority="321" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="689" priority="321" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F37))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="698" priority="322" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="688" priority="322" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="notContainsText" dxfId="697" priority="319" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="687" priority="319" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F39))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="696" priority="320" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="686" priority="320" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="notContainsText" dxfId="695" priority="317" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="685" priority="317" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F40))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="694" priority="318" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="684" priority="318" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="notContainsText" dxfId="693" priority="315" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="683" priority="315" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F41))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="692" priority="316" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="682" priority="316" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="notContainsText" dxfId="691" priority="313" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="681" priority="313" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F42))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="690" priority="314" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="680" priority="314" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="notContainsText" dxfId="689" priority="311" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="679" priority="311" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F43))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="688" priority="312" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="678" priority="312" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="notContainsText" dxfId="687" priority="309" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="677" priority="309" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F44))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="686" priority="310" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="676" priority="310" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="notContainsText" dxfId="685" priority="307" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="675" priority="307" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F45))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="684" priority="308" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="674" priority="308" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="notContainsText" dxfId="683" priority="305" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="673" priority="305" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F48))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="682" priority="306" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="672" priority="306" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="notContainsText" dxfId="681" priority="303" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="671" priority="303" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F49))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="680" priority="304" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="670" priority="304" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="notContainsText" dxfId="679" priority="301" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="669" priority="301" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F47))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="678" priority="302" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="668" priority="302" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131">
-    <cfRule type="notContainsText" dxfId="677" priority="171" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="667" priority="171" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F131))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="676" priority="172" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="666" priority="172" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="notContainsText" dxfId="675" priority="297" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="665" priority="297" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F51))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="674" priority="298" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="664" priority="298" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="notContainsText" dxfId="673" priority="295" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="663" priority="295" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F52))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="672" priority="296" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="662" priority="296" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="notContainsText" dxfId="671" priority="293" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="661" priority="293" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F53))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="670" priority="294" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="660" priority="294" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="notContainsText" dxfId="669" priority="291" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="659" priority="291" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F54))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="668" priority="292" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="658" priority="292" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="notContainsText" dxfId="667" priority="289" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="657" priority="289" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F56))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="666" priority="290" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="656" priority="290" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="notContainsText" dxfId="665" priority="287" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="655" priority="287" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F57))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="664" priority="288" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="654" priority="288" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="notContainsText" dxfId="663" priority="285" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="653" priority="285" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F58))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="662" priority="286" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="652" priority="286" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="notContainsText" dxfId="661" priority="283" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="651" priority="283" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F59))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="660" priority="284" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="650" priority="284" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="notContainsText" dxfId="659" priority="281" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="649" priority="281" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F60))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="658" priority="282" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="648" priority="282" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="notContainsText" dxfId="657" priority="279" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="647" priority="279" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F61))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="656" priority="280" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="646" priority="280" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="notContainsText" dxfId="655" priority="277" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="645" priority="277" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F62))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="654" priority="278" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="644" priority="278" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="notContainsText" dxfId="653" priority="275" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="643" priority="275" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F63))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="652" priority="276" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="642" priority="276" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="notContainsText" dxfId="651" priority="273" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="641" priority="273" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F64))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="650" priority="274" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="640" priority="274" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="notContainsText" dxfId="649" priority="271" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="639" priority="271" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F65))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="648" priority="272" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="638" priority="272" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93 F104:F105">
-    <cfRule type="notContainsText" dxfId="647" priority="269" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="637" priority="269" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F93))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="646" priority="270" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="636" priority="270" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89">
-    <cfRule type="notContainsText" dxfId="645" priority="267" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="635" priority="267" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F89))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="644" priority="268" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="634" priority="268" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90">
-    <cfRule type="notContainsText" dxfId="643" priority="265" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="633" priority="265" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F90))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="642" priority="266" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="632" priority="266" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91">
-    <cfRule type="notContainsText" dxfId="641" priority="263" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="631" priority="263" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F91))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="640" priority="264" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="630" priority="264" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92">
-    <cfRule type="notContainsText" dxfId="639" priority="261" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="629" priority="261" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F92))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="638" priority="262" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="628" priority="262" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94">
-    <cfRule type="notContainsText" dxfId="637" priority="259" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="627" priority="259" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F94))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="636" priority="260" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="626" priority="260" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="notContainsText" dxfId="635" priority="257" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="625" priority="257" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F95))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="634" priority="258" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="624" priority="258" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="notContainsText" dxfId="633" priority="255" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="623" priority="255" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F96))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="632" priority="256" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="622" priority="256" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="notContainsText" dxfId="631" priority="253" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="621" priority="253" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F97))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="630" priority="254" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="620" priority="254" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F97)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="notContainsText" dxfId="629" priority="251" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="619" priority="251" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F98))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="628" priority="252" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="618" priority="252" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F98)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99">
-    <cfRule type="notContainsText" dxfId="627" priority="249" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="617" priority="249" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F99))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="626" priority="250" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="616" priority="250" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F99)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100">
-    <cfRule type="notContainsText" dxfId="625" priority="247" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="615" priority="247" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F100))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="624" priority="248" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="614" priority="248" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101">
-    <cfRule type="notContainsText" dxfId="623" priority="245" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="613" priority="245" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F101))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="622" priority="246" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="612" priority="246" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="notContainsText" dxfId="621" priority="243" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="611" priority="243" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F102))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="620" priority="244" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="610" priority="244" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103">
-    <cfRule type="notContainsText" dxfId="619" priority="241" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="609" priority="241" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F103))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="618" priority="242" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="608" priority="242" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="notContainsText" dxfId="617" priority="239" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="607" priority="239" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F68))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="616" priority="240" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="606" priority="240" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88">
-    <cfRule type="notContainsText" dxfId="615" priority="237" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="605" priority="237" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F88))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="614" priority="238" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="604" priority="238" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="notContainsText" dxfId="613" priority="235" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="603" priority="235" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F74))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="612" priority="236" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="602" priority="236" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="notContainsText" dxfId="611" priority="233" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="601" priority="233" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F73))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="610" priority="234" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="600" priority="234" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="notContainsText" dxfId="609" priority="231" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="599" priority="231" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F75))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="608" priority="232" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="598" priority="232" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="notContainsText" dxfId="607" priority="229" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="597" priority="229" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F76))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="606" priority="230" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="596" priority="230" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="notContainsText" dxfId="605" priority="227" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="595" priority="227" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F77))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="604" priority="228" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="594" priority="228" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="notContainsText" dxfId="603" priority="225" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="593" priority="225" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F78))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="602" priority="226" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="592" priority="226" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="notContainsText" dxfId="601" priority="223" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="591" priority="223" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F79))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="600" priority="224" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="590" priority="224" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="notContainsText" dxfId="599" priority="221" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="589" priority="221" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F80))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="598" priority="222" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="588" priority="222" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81">
-    <cfRule type="notContainsText" dxfId="597" priority="219" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="587" priority="219" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F81))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="596" priority="220" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="586" priority="220" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82">
-    <cfRule type="notContainsText" dxfId="595" priority="217" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="585" priority="217" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F82))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="594" priority="218" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="584" priority="218" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="notContainsText" dxfId="593" priority="215" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="583" priority="215" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F83))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="592" priority="216" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="582" priority="216" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84">
-    <cfRule type="notContainsText" dxfId="591" priority="213" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="581" priority="213" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F84))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="590" priority="214" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="580" priority="214" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107:F110 F123:F124">
-    <cfRule type="notContainsText" dxfId="589" priority="211" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="579" priority="211" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F107))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="588" priority="212" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="578" priority="212" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="notContainsText" dxfId="587" priority="209" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="577" priority="209" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F106))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="586" priority="210" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="576" priority="210" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="notContainsText" dxfId="585" priority="207" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="575" priority="207" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F112))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="584" priority="208" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="574" priority="208" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111">
-    <cfRule type="notContainsText" dxfId="583" priority="205" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="573" priority="205" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F111))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="582" priority="206" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="572" priority="206" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F113">
-    <cfRule type="notContainsText" dxfId="581" priority="203" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="571" priority="203" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F113))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="580" priority="204" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="570" priority="204" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114">
-    <cfRule type="notContainsText" dxfId="579" priority="201" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="569" priority="201" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F114))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="578" priority="202" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="568" priority="202" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F115">
-    <cfRule type="notContainsText" dxfId="577" priority="199" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="567" priority="199" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F115))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="576" priority="200" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="566" priority="200" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F116">
-    <cfRule type="notContainsText" dxfId="575" priority="197" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="565" priority="197" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F116))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="574" priority="198" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="564" priority="198" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F117">
-    <cfRule type="notContainsText" dxfId="573" priority="195" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="563" priority="195" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F117))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="572" priority="196" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="562" priority="196" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118">
-    <cfRule type="notContainsText" dxfId="571" priority="193" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="561" priority="193" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F118))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="570" priority="194" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="560" priority="194" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="notContainsText" dxfId="569" priority="191" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="559" priority="191" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F119))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="568" priority="192" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="558" priority="192" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="notContainsText" dxfId="567" priority="189" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="557" priority="189" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F120))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="566" priority="190" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="556" priority="190" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F121">
-    <cfRule type="notContainsText" dxfId="565" priority="187" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="555" priority="187" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F121))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="564" priority="188" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="554" priority="188" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122">
-    <cfRule type="notContainsText" dxfId="563" priority="185" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="553" priority="185" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F122))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="562" priority="186" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="552" priority="186" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F122)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F126">
-    <cfRule type="notContainsText" dxfId="561" priority="183" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="551" priority="183" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F126))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="560" priority="184" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="550" priority="184" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F127">
-    <cfRule type="notContainsText" dxfId="559" priority="181" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="549" priority="181" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F127))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="558" priority="182" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="548" priority="182" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F128">
-    <cfRule type="notContainsText" dxfId="557" priority="179" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="547" priority="179" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F128))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="556" priority="180" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="546" priority="180" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F130">
-    <cfRule type="notContainsText" dxfId="555" priority="177" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="545" priority="177" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F130))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="554" priority="178" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="544" priority="178" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F132">
-    <cfRule type="notContainsText" dxfId="553" priority="175" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="543" priority="175" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F132))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="552" priority="176" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="542" priority="176" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137">
-    <cfRule type="notContainsText" dxfId="551" priority="173" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="541" priority="173" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F137))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="550" priority="174" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="540" priority="174" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F133">
-    <cfRule type="notContainsText" dxfId="549" priority="169" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="539" priority="169" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F133))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="548" priority="170" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="538" priority="170" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F133)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134">
-    <cfRule type="notContainsText" dxfId="547" priority="167" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="537" priority="167" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F134))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="546" priority="168" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="536" priority="168" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135">
-    <cfRule type="notContainsText" dxfId="545" priority="165" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="535" priority="165" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F135))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="544" priority="166" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="534" priority="166" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F136">
-    <cfRule type="notContainsText" dxfId="543" priority="163" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="533" priority="163" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F136))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="542" priority="164" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="532" priority="164" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F139">
-    <cfRule type="notContainsText" dxfId="541" priority="161" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="531" priority="161" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F139))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="540" priority="162" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="530" priority="162" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F138">
-    <cfRule type="notContainsText" dxfId="539" priority="159" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="529" priority="159" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F138))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="538" priority="160" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="528" priority="160" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F138)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="notContainsText" dxfId="537" priority="157" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="527" priority="157" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F140))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="536" priority="158" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="526" priority="158" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="notContainsText" dxfId="535" priority="155" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="525" priority="155" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F141))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="534" priority="156" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="524" priority="156" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F141)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F146">
-    <cfRule type="notContainsText" dxfId="533" priority="147" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="523" priority="147" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F146))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="532" priority="148" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="522" priority="148" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F145">
-    <cfRule type="notContainsText" dxfId="531" priority="153" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="521" priority="153" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F145))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="530" priority="154" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="520" priority="154" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F145)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="notContainsText" dxfId="529" priority="151" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="519" priority="151" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F147))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="528" priority="152" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="518" priority="152" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F147)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F152">
-    <cfRule type="notContainsText" dxfId="527" priority="149" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="517" priority="149" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F152))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="526" priority="150" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="516" priority="150" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="notContainsText" dxfId="525" priority="145" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="515" priority="145" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F148))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="524" priority="146" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="514" priority="146" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F148)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F149">
-    <cfRule type="notContainsText" dxfId="523" priority="143" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="513" priority="143" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F149))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="522" priority="144" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="512" priority="144" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F149)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F150">
-    <cfRule type="notContainsText" dxfId="521" priority="141" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="511" priority="141" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F150))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="520" priority="142" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="510" priority="142" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F150)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F151">
-    <cfRule type="notContainsText" dxfId="519" priority="139" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="509" priority="139" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F151))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="518" priority="140" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="508" priority="140" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F154">
-    <cfRule type="notContainsText" dxfId="517" priority="137" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="507" priority="137" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F154))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="516" priority="138" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="506" priority="138" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F154)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F153">
-    <cfRule type="notContainsText" dxfId="515" priority="135" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="505" priority="135" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F153))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="514" priority="136" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="504" priority="136" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F153)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155">
-    <cfRule type="notContainsText" dxfId="513" priority="133" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="503" priority="133" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F155))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="512" priority="134" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="502" priority="134" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F156">
-    <cfRule type="notContainsText" dxfId="511" priority="131" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="501" priority="131" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F156))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="510" priority="132" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="500" priority="132" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F157">
-    <cfRule type="notContainsText" dxfId="509" priority="129" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="499" priority="129" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F157))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="508" priority="130" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="498" priority="130" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158">
-    <cfRule type="notContainsText" dxfId="507" priority="127" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="497" priority="127" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F158))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="506" priority="128" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="496" priority="128" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F160">
-    <cfRule type="notContainsText" dxfId="505" priority="125" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="495" priority="125" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F160))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="504" priority="126" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="494" priority="126" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F160)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F179">
-    <cfRule type="notContainsText" dxfId="503" priority="123" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="493" priority="123" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F179))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="502" priority="124" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="492" priority="124" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F161">
-    <cfRule type="notContainsText" dxfId="501" priority="121" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="491" priority="121" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F161))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="500" priority="122" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="490" priority="122" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F161)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F162">
-    <cfRule type="notContainsText" dxfId="499" priority="119" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="489" priority="119" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F162))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="498" priority="120" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="488" priority="120" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F162)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F166">
-    <cfRule type="notContainsText" dxfId="497" priority="117" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="487" priority="117" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F166))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="496" priority="118" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="486" priority="118" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F170">
-    <cfRule type="notContainsText" dxfId="495" priority="115" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="485" priority="115" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F170))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="494" priority="116" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="484" priority="116" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F170)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F175">
-    <cfRule type="notContainsText" dxfId="493" priority="113" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="483" priority="113" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F175))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="492" priority="114" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="482" priority="114" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F175)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F163">
-    <cfRule type="notContainsText" dxfId="491" priority="109" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="481" priority="109" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F163))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="490" priority="110" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="480" priority="110" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F163)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F164">
-    <cfRule type="notContainsText" dxfId="489" priority="107" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="479" priority="107" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F164))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="488" priority="108" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="478" priority="108" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F165">
-    <cfRule type="notContainsText" dxfId="487" priority="105" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="477" priority="105" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F165))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="486" priority="106" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="476" priority="106" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F165)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F167">
-    <cfRule type="notContainsText" dxfId="485" priority="103" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="475" priority="103" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F167))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="484" priority="104" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="474" priority="104" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F168">
-    <cfRule type="notContainsText" dxfId="483" priority="101" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="473" priority="101" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F168))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="482" priority="102" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="472" priority="102" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F168)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F169">
-    <cfRule type="notContainsText" dxfId="481" priority="99" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="471" priority="99" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F169))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="480" priority="100" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="470" priority="100" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F169)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F171">
-    <cfRule type="notContainsText" dxfId="479" priority="97" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="469" priority="97" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F171))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="478" priority="98" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="468" priority="98" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F171)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="notContainsText" dxfId="477" priority="95" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="467" priority="95" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F172))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="476" priority="96" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="466" priority="96" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F172)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173">
-    <cfRule type="notContainsText" dxfId="475" priority="93" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="465" priority="93" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F173))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="474" priority="94" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="464" priority="94" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F173)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F174">
-    <cfRule type="notContainsText" dxfId="473" priority="91" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="463" priority="91" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F174))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="472" priority="92" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="462" priority="92" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F174)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="notContainsText" dxfId="471" priority="89" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="461" priority="89" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F176))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="470" priority="90" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="460" priority="90" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F176)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F177">
-    <cfRule type="notContainsText" dxfId="469" priority="87" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="459" priority="87" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F177))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="468" priority="88" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="458" priority="88" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197">
-    <cfRule type="notContainsText" dxfId="467" priority="85" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="457" priority="85" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F197))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="466" priority="86" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="456" priority="86" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F197)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F180">
-    <cfRule type="notContainsText" dxfId="465" priority="83" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="455" priority="83" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F180))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="464" priority="84" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="454" priority="84" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F181">
-    <cfRule type="notContainsText" dxfId="463" priority="81" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="453" priority="81" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F181))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="462" priority="82" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="452" priority="82" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F185">
-    <cfRule type="notContainsText" dxfId="461" priority="79" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="451" priority="79" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F185))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="460" priority="80" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="450" priority="80" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F185)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F189">
-    <cfRule type="notContainsText" dxfId="459" priority="77" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="449" priority="77" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F189))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="458" priority="78" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="448" priority="78" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F189)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="notContainsText" dxfId="457" priority="75" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="447" priority="75" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F194))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="456" priority="76" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="446" priority="76" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F194)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F182">
-    <cfRule type="notContainsText" dxfId="455" priority="73" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="445" priority="73" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F182))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="454" priority="74" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="444" priority="74" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F182)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F183">
-    <cfRule type="notContainsText" dxfId="453" priority="71" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="443" priority="71" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F183))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="452" priority="72" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="442" priority="72" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F183)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F184">
-    <cfRule type="notContainsText" dxfId="451" priority="69" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="441" priority="69" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F184))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="450" priority="70" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="440" priority="70" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F184)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F186">
-    <cfRule type="notContainsText" dxfId="449" priority="67" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="439" priority="67" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F186))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="448" priority="68" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="438" priority="68" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F186)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F187">
-    <cfRule type="notContainsText" dxfId="447" priority="65" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="437" priority="65" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F187))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="446" priority="66" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="436" priority="66" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F187)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F188">
-    <cfRule type="notContainsText" dxfId="445" priority="63" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="435" priority="63" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F188))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="444" priority="64" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="434" priority="64" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F188)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F190">
-    <cfRule type="notContainsText" dxfId="443" priority="61" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="433" priority="61" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F190))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="442" priority="62" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="432" priority="62" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F190)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191">
-    <cfRule type="notContainsText" dxfId="441" priority="59" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="431" priority="59" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F191))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="440" priority="60" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="430" priority="60" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F191)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192">
-    <cfRule type="notContainsText" dxfId="439" priority="57" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="429" priority="57" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F192))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="438" priority="58" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="428" priority="58" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F192)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F193">
-    <cfRule type="notContainsText" dxfId="437" priority="55" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="427" priority="55" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F193))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="436" priority="56" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="426" priority="56" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F193)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="notContainsText" dxfId="435" priority="53" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="425" priority="53" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F195))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="434" priority="54" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="424" priority="54" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="notContainsText" dxfId="433" priority="51" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="423" priority="51" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F196))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="432" priority="52" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="422" priority="52" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F198">
-    <cfRule type="notContainsText" dxfId="431" priority="49" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="421" priority="49" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F198))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="430" priority="50" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="420" priority="50" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F201">
-    <cfRule type="notContainsText" dxfId="429" priority="45" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="419" priority="45" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F201))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="428" priority="46" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="418" priority="46" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F202">
-    <cfRule type="notContainsText" dxfId="427" priority="43" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="417" priority="43" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F202))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="44" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="416" priority="44" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F203">
-    <cfRule type="notContainsText" dxfId="425" priority="41" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="415" priority="41" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F203))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="424" priority="42" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="414" priority="42" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F203)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F204">
-    <cfRule type="notContainsText" dxfId="423" priority="39" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="413" priority="39" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F204))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="422" priority="40" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="412" priority="40" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F204)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F207">
-    <cfRule type="notContainsText" dxfId="421" priority="37" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="411" priority="37" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F207))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="420" priority="38" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="410" priority="38" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208">
-    <cfRule type="notContainsText" dxfId="419" priority="35" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="409" priority="35" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F208))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="418" priority="36" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="408" priority="36" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F209">
-    <cfRule type="notContainsText" dxfId="417" priority="33" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="407" priority="33" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F209))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="416" priority="34" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="406" priority="34" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F210">
-    <cfRule type="notContainsText" dxfId="415" priority="31" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="405" priority="31" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F210))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="32" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="404" priority="32" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211">
-    <cfRule type="notContainsText" dxfId="413" priority="29" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="403" priority="29" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F211))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="412" priority="30" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="402" priority="30" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F212">
-    <cfRule type="notContainsText" dxfId="411" priority="27" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="401" priority="27" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F212))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="410" priority="28" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="400" priority="28" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F212)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F213">
-    <cfRule type="notContainsText" dxfId="409" priority="25" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="399" priority="25" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F213))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="408" priority="26" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="398" priority="26" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F214">
-    <cfRule type="notContainsText" dxfId="407" priority="23" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="397" priority="23" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F214))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="406" priority="24" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="396" priority="24" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F214)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F215">
-    <cfRule type="notContainsText" dxfId="405" priority="21" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="395" priority="21" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F215))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="404" priority="22" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="394" priority="22" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F216">
-    <cfRule type="notContainsText" dxfId="403" priority="19" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="393" priority="19" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F216))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="20" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="392" priority="20" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F219">
-    <cfRule type="notContainsText" dxfId="401" priority="17" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="391" priority="17" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F219))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="400" priority="18" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="390" priority="18" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F220">
-    <cfRule type="notContainsText" dxfId="399" priority="13" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="389" priority="13" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F220))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="398" priority="14" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="388" priority="14" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F220)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F221">
-    <cfRule type="notContainsText" dxfId="397" priority="11" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="387" priority="11" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F221))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="12" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="386" priority="12" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F221)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223">
-    <cfRule type="notContainsText" dxfId="395" priority="9" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="385" priority="9" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F223))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="10" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="384" priority="10" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="notContainsText" dxfId="393" priority="7" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="383" priority="7" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F224))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="392" priority="8" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="382" priority="8" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F225">
-    <cfRule type="notContainsText" dxfId="391" priority="5" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="381" priority="5" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F225))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="6" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="380" priority="6" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F225)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F226">
-    <cfRule type="notContainsText" dxfId="389" priority="3" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="379" priority="3" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F226))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="388" priority="4" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="378" priority="4" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F226)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F227">
-    <cfRule type="notContainsText" dxfId="387" priority="1" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="377" priority="1" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F227))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="386" priority="2" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="376" priority="2" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F227)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12866,7 +12778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="54" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F160" sqref="F160"/>
+      <selection pane="bottomLeft" activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12918,14 +12830,14 @@
       </c>
       <c r="K1" s="17">
         <f>COUNTIF(F2:F228,"ok")</f>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>168</v>
       </c>
       <c r="M1" s="18">
         <f>COUNTIF(F2:F228,"no")</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>169</v>
@@ -12935,7 +12847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
@@ -12955,7 +12867,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="21"/>
       <c r="C3" s="1" t="s">
@@ -12971,7 +12883,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="21"/>
       <c r="C4" s="1" t="s">
@@ -12987,7 +12899,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="21"/>
       <c r="C5" s="1" t="s">
@@ -13003,7 +12915,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="21"/>
       <c r="C6" s="1" t="s">
@@ -13019,7 +12931,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="21"/>
       <c r="C7" s="1" t="s">
@@ -13035,7 +12947,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="21"/>
       <c r="C8" s="1" t="s">
@@ -13051,7 +12963,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="21"/>
       <c r="C9" s="1" t="s">
@@ -13067,7 +12979,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="21"/>
       <c r="C10" s="1" t="s">
@@ -13083,7 +12995,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="21"/>
       <c r="C11" s="1" t="s">
@@ -13099,7 +13011,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="21"/>
       <c r="C12" s="1" t="s">
@@ -13131,7 +13043,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>21</v>
       </c>
@@ -13151,7 +13063,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="21"/>
       <c r="C15" s="1" t="s">
@@ -13167,7 +13079,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="21"/>
       <c r="C16" s="1" t="s">
@@ -13183,7 +13095,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="21"/>
       <c r="C17" s="1" t="s">
@@ -13199,7 +13111,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="21"/>
       <c r="C18" s="1" t="s">
@@ -13215,7 +13127,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="21"/>
       <c r="C19" s="1" t="s">
@@ -13231,7 +13143,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="21"/>
       <c r="C20" s="1" t="s">
@@ -13247,7 +13159,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="21"/>
       <c r="C21" s="1" t="s">
@@ -13263,7 +13175,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="21"/>
       <c r="C22" s="1" t="s">
@@ -13279,7 +13191,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="21"/>
       <c r="C23" s="1" t="s">
@@ -13295,7 +13207,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="21"/>
       <c r="C24" s="1" t="s">
@@ -13327,7 +13239,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>64</v>
       </c>
@@ -13347,7 +13259,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="21"/>
       <c r="C27" s="1" t="s">
@@ -13363,7 +13275,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="21"/>
       <c r="C28" s="1" t="s">
@@ -13379,7 +13291,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="21"/>
       <c r="C29" s="1" t="s">
@@ -13395,7 +13307,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="21"/>
       <c r="C30" s="1" t="s">
@@ -13411,7 +13323,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="22"/>
       <c r="C31" s="1" t="s">
@@ -13427,7 +13339,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="20" t="s">
         <v>69</v>
@@ -13445,7 +13357,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="21"/>
       <c r="C33" s="1" t="s">
@@ -13461,7 +13373,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="21"/>
       <c r="C34" s="1" t="s">
@@ -13477,7 +13389,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="21"/>
       <c r="C35" s="1" t="s">
@@ -13493,7 +13405,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="21"/>
       <c r="C36" s="1" t="s">
@@ -13509,7 +13421,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="22"/>
       <c r="C37" s="1" t="s">
@@ -13525,7 +13437,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="20" t="s">
         <v>70</v>
@@ -13543,7 +13455,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="21"/>
       <c r="C39" s="1" t="s">
@@ -13559,7 +13471,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="21"/>
       <c r="C40" s="1" t="s">
@@ -13575,7 +13487,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="21"/>
       <c r="C41" s="1" t="s">
@@ -13591,7 +13503,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="21"/>
       <c r="C42" s="1" t="s">
@@ -13607,7 +13519,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="22"/>
       <c r="C43" s="1" t="s">
@@ -13623,7 +13535,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="20" t="s">
         <v>72</v>
@@ -13641,7 +13553,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="21"/>
       <c r="C45" s="1" t="s">
@@ -13657,7 +13569,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="21"/>
       <c r="C46" s="1" t="s">
@@ -13673,7 +13585,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="21"/>
       <c r="C47" s="1" t="s">
@@ -13689,7 +13601,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="21"/>
       <c r="C48" s="1" t="s">
@@ -13721,7 +13633,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>61</v>
       </c>
@@ -13741,7 +13653,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="21"/>
       <c r="C51" s="1" t="s">
@@ -13757,7 +13669,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="21"/>
       <c r="C52" s="1" t="s">
@@ -13773,7 +13685,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="21"/>
       <c r="C53" s="1" t="s">
@@ -13789,7 +13701,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="21"/>
       <c r="C54" s="1" t="s">
@@ -13805,7 +13717,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="21"/>
       <c r="C55" s="1" t="s">
@@ -13821,7 +13733,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="21"/>
       <c r="C56" s="1" t="s">
@@ -13837,7 +13749,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="21"/>
       <c r="C57" s="1" t="s">
@@ -13853,7 +13765,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="21"/>
       <c r="C58" s="1" t="s">
@@ -13869,7 +13781,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="21"/>
       <c r="C59" s="1" t="s">
@@ -13885,7 +13797,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="21"/>
       <c r="C60" s="1" t="s">
@@ -13901,7 +13813,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="21"/>
       <c r="C61" s="1" t="s">
@@ -13917,7 +13829,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="21"/>
       <c r="C62" s="1" t="s">
@@ -13933,7 +13845,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="21"/>
       <c r="C63" s="1" t="s">
@@ -13949,7 +13861,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="21"/>
       <c r="C64" s="1" t="s">
@@ -13965,7 +13877,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="21"/>
       <c r="C65" s="1" t="s">
@@ -13981,7 +13893,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="21"/>
       <c r="C66" s="1" t="s">
@@ -13997,7 +13909,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="B67" s="22"/>
       <c r="C67" s="1" t="s">
@@ -14013,7 +13925,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="20" t="s">
         <v>95</v>
@@ -14031,7 +13943,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="21"/>
       <c r="C69" s="1" t="s">
@@ -14047,7 +13959,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
       <c r="B70" s="21"/>
       <c r="C70" s="1" t="s">
@@ -14063,7 +13975,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
       <c r="B71" s="21"/>
       <c r="C71" s="1" t="s">
@@ -14079,7 +13991,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="21"/>
       <c r="C72" s="1" t="s">
@@ -14095,7 +14007,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="21"/>
       <c r="C73" s="1" t="s">
@@ -14111,7 +14023,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="21"/>
       <c r="C74" s="1" t="s">
@@ -14127,7 +14039,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
       <c r="B75" s="21"/>
       <c r="C75" s="1" t="s">
@@ -14143,7 +14055,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="24"/>
       <c r="B76" s="21"/>
       <c r="C76" s="1" t="s">
@@ -14159,7 +14071,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
       <c r="B77" s="21"/>
       <c r="C77" s="1" t="s">
@@ -14175,7 +14087,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
       <c r="B78" s="21"/>
       <c r="C78" s="1" t="s">
@@ -14191,7 +14103,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="24"/>
       <c r="B79" s="21"/>
       <c r="C79" s="1" t="s">
@@ -14207,7 +14119,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="21"/>
       <c r="C80" s="1" t="s">
@@ -14223,7 +14135,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="24"/>
       <c r="B81" s="21"/>
       <c r="C81" s="1" t="s">
@@ -14239,7 +14151,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="24"/>
       <c r="B82" s="21"/>
       <c r="C82" s="1" t="s">
@@ -14255,7 +14167,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
       <c r="B83" s="21"/>
       <c r="C83" s="1" t="s">
@@ -14271,7 +14183,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="24"/>
       <c r="B84" s="21"/>
       <c r="C84" s="1" t="s">
@@ -14287,7 +14199,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="24"/>
       <c r="B85" s="21"/>
       <c r="C85" s="1" t="s">
@@ -14303,7 +14215,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="24"/>
       <c r="B86" s="22"/>
       <c r="C86" s="1" t="s">
@@ -14319,7 +14231,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="24"/>
       <c r="B87" s="13" t="s">
         <v>117</v>
@@ -14335,7 +14247,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="24"/>
       <c r="B88" s="20" t="s">
         <v>96</v>
@@ -14353,7 +14265,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24"/>
       <c r="B89" s="21"/>
       <c r="C89" s="1" t="s">
@@ -14369,7 +14281,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="24"/>
       <c r="B90" s="21"/>
       <c r="C90" s="1" t="s">
@@ -14385,7 +14297,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="24"/>
       <c r="B91" s="21"/>
       <c r="C91" s="1" t="s">
@@ -14401,7 +14313,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="24"/>
       <c r="B92" s="21"/>
       <c r="C92" s="1" t="s">
@@ -14417,7 +14329,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="24"/>
       <c r="B93" s="21"/>
       <c r="C93" s="1" t="s">
@@ -14433,7 +14345,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="24"/>
       <c r="B94" s="21"/>
       <c r="C94" s="1" t="s">
@@ -14449,7 +14361,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="24"/>
       <c r="B95" s="21"/>
       <c r="C95" s="1" t="s">
@@ -14465,7 +14377,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="24"/>
       <c r="B96" s="21"/>
       <c r="C96" s="1" t="s">
@@ -14481,7 +14393,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="24"/>
       <c r="B97" s="21"/>
       <c r="C97" s="1" t="s">
@@ -14497,7 +14409,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="24"/>
       <c r="B98" s="21"/>
       <c r="C98" s="1" t="s">
@@ -14513,7 +14425,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="24"/>
       <c r="B99" s="21"/>
       <c r="C99" s="1" t="s">
@@ -14529,7 +14441,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="24"/>
       <c r="B100" s="21"/>
       <c r="C100" s="1" t="s">
@@ -14545,7 +14457,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="24"/>
       <c r="B101" s="21"/>
       <c r="C101" s="1" t="s">
@@ -14561,7 +14473,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="24"/>
       <c r="B102" s="21"/>
       <c r="C102" s="1" t="s">
@@ -14577,7 +14489,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="24"/>
       <c r="B103" s="21"/>
       <c r="C103" s="1" t="s">
@@ -14593,7 +14505,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="24"/>
       <c r="B104" s="21"/>
       <c r="C104" s="1" t="s">
@@ -14609,7 +14521,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24"/>
       <c r="B105" s="22"/>
       <c r="C105" s="1" t="s">
@@ -14625,7 +14537,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="24"/>
       <c r="B106" s="20" t="s">
         <v>97</v>
@@ -14643,7 +14555,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="24"/>
       <c r="B107" s="21"/>
       <c r="C107" s="1" t="s">
@@ -14659,7 +14571,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="24"/>
       <c r="B108" s="21"/>
       <c r="C108" s="1" t="s">
@@ -14675,7 +14587,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="24"/>
       <c r="B109" s="21"/>
       <c r="C109" s="1" t="s">
@@ -14691,7 +14603,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="24"/>
       <c r="B110" s="21"/>
       <c r="C110" s="1" t="s">
@@ -14707,7 +14619,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="24"/>
       <c r="B111" s="21"/>
       <c r="C111" s="1" t="s">
@@ -14723,7 +14635,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="24"/>
       <c r="B112" s="21"/>
       <c r="C112" s="1" t="s">
@@ -14739,7 +14651,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="24"/>
       <c r="B113" s="21"/>
       <c r="C113" s="1" t="s">
@@ -14755,7 +14667,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="24"/>
       <c r="B114" s="21"/>
       <c r="C114" s="1" t="s">
@@ -14771,7 +14683,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="24"/>
       <c r="B115" s="21"/>
       <c r="C115" s="1" t="s">
@@ -14787,7 +14699,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="24"/>
       <c r="B116" s="21"/>
       <c r="C116" s="1" t="s">
@@ -14803,7 +14715,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="24"/>
       <c r="B117" s="21"/>
       <c r="C117" s="1" t="s">
@@ -14819,7 +14731,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="24"/>
       <c r="B118" s="21"/>
       <c r="C118" s="1" t="s">
@@ -14835,7 +14747,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="24"/>
       <c r="B119" s="21"/>
       <c r="C119" s="1" t="s">
@@ -14851,7 +14763,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="24"/>
       <c r="B120" s="21"/>
       <c r="C120" s="1" t="s">
@@ -14867,7 +14779,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="24"/>
       <c r="B121" s="21"/>
       <c r="C121" s="1" t="s">
@@ -14883,7 +14795,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="24"/>
       <c r="B122" s="21"/>
       <c r="C122" s="1" t="s">
@@ -14899,7 +14811,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="24"/>
       <c r="B123" s="21"/>
       <c r="C123" s="1" t="s">
@@ -14915,7 +14827,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="24"/>
       <c r="B124" s="22"/>
       <c r="C124" s="1" t="s">
@@ -14931,7 +14843,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="24"/>
       <c r="B125" s="13" t="s">
         <v>119</v>
@@ -14949,7 +14861,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="24"/>
       <c r="B126" s="20" t="s">
         <v>8</v>
@@ -14967,7 +14879,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="24"/>
       <c r="B127" s="21"/>
       <c r="C127" s="1" t="s">
@@ -14999,7 +14911,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="23" t="s">
         <v>62</v>
       </c>
@@ -15115,7 +15027,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="24"/>
       <c r="B136" s="21"/>
       <c r="C136" s="1" t="s">
@@ -15211,7 +15123,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="24"/>
       <c r="B142" s="22"/>
       <c r="C142" s="1" t="s">
@@ -15245,7 +15157,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="24"/>
       <c r="B144" s="21"/>
       <c r="C144" s="1" t="s">
@@ -15357,7 +15269,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="24"/>
       <c r="B151" s="21"/>
       <c r="C151" s="1" t="s">
@@ -15489,7 +15401,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="25"/>
       <c r="B159" s="26"/>
       <c r="C159" s="8" t="s">
@@ -15499,13 +15411,13 @@
         <v>100</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="23" t="s">
         <v>120</v>
       </c>
@@ -15519,10 +15431,10 @@
         <v>100</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15815,7 +15727,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="24"/>
       <c r="B179" s="21"/>
       <c r="C179" s="1" t="s">
@@ -15825,10 +15737,10 @@
         <v>100</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16673,650 +16585,650 @@
     <mergeCell ref="B44:B49"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F9 F14 F17 F26:F27 F38 F46 F50 F55 F66:F67 F125 F69:F72 F86:F87 F129 F142:F144 F159 F199:F200 F178 F205:F206 F217:F218 F222 F228">
-    <cfRule type="notContainsText" dxfId="385" priority="385" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="375" priority="385" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F2))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="386" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="374" priority="386" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="notContainsText" dxfId="383" priority="383" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="373" priority="383" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F10))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="384" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="372" priority="384" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="notContainsText" dxfId="381" priority="381" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="371" priority="381" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F11))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="380" priority="382" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="370" priority="382" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="notContainsText" dxfId="379" priority="379" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="369" priority="379" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F12))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="380" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="368" priority="380" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="notContainsText" dxfId="377" priority="377" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="367" priority="377" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F13))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="378" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="366" priority="378" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="notContainsText" dxfId="375" priority="375" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="365" priority="375" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F15))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="374" priority="376" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="364" priority="376" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="notContainsText" dxfId="373" priority="373" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="363" priority="373" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F16))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="374" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="362" priority="374" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="notContainsText" dxfId="371" priority="371" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="361" priority="371" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F18))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="372" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="360" priority="372" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="notContainsText" dxfId="369" priority="369" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="359" priority="369" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F20))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="368" priority="370" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="358" priority="370" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="notContainsText" dxfId="367" priority="367" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="357" priority="367" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F21))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="366" priority="368" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="356" priority="368" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="notContainsText" dxfId="365" priority="365" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="355" priority="365" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F24))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="364" priority="366" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="354" priority="366" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="notContainsText" dxfId="363" priority="363" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="353" priority="363" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F19))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="362" priority="364" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="352" priority="364" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="notContainsText" dxfId="361" priority="361" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="351" priority="361" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F22))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="362" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="350" priority="362" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="notContainsText" dxfId="359" priority="359" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="349" priority="359" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F23))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="360" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="348" priority="360" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="notContainsText" dxfId="357" priority="357" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="347" priority="357" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F25))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="356" priority="358" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="346" priority="358" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="notContainsText" dxfId="355" priority="355" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="345" priority="355" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F28))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="356" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="344" priority="356" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="notContainsText" dxfId="353" priority="353" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="343" priority="353" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F29))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="354" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="342" priority="354" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="notContainsText" dxfId="351" priority="351" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="341" priority="351" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F30))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="350" priority="352" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="340" priority="352" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="notContainsText" dxfId="349" priority="349" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="339" priority="349" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F31))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="350" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="338" priority="350" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="notContainsText" dxfId="347" priority="347" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="337" priority="347" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F32))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="348" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="336" priority="348" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="notContainsText" dxfId="345" priority="345" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="335" priority="345" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F33))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="344" priority="346" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="334" priority="346" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="notContainsText" dxfId="343" priority="343" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="333" priority="343" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F34))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="342" priority="344" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="332" priority="344" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="notContainsText" dxfId="341" priority="341" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="331" priority="341" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F35))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="342" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="330" priority="342" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="notContainsText" dxfId="339" priority="339" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="329" priority="339" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F36))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="338" priority="340" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="328" priority="340" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="notContainsText" dxfId="337" priority="337" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="327" priority="337" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F37))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="338" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="326" priority="338" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="notContainsText" dxfId="335" priority="335" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="325" priority="335" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F39))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="336" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="324" priority="336" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="notContainsText" dxfId="333" priority="333" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="323" priority="333" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F40))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="334" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="322" priority="334" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="notContainsText" dxfId="331" priority="331" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="321" priority="331" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F41))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="332" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="320" priority="332" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="notContainsText" dxfId="329" priority="329" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="319" priority="329" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F42))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="330" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="318" priority="330" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="notContainsText" dxfId="327" priority="327" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="317" priority="327" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F43))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="328" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="316" priority="328" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="notContainsText" dxfId="325" priority="325" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="315" priority="325" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F44))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="326" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="314" priority="326" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="notContainsText" dxfId="323" priority="323" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="313" priority="323" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F45))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="324" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="312" priority="324" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="notContainsText" dxfId="321" priority="321" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="311" priority="321" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F48))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="322" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="310" priority="322" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="notContainsText" dxfId="319" priority="319" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="309" priority="319" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F49))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="320" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="308" priority="320" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="notContainsText" dxfId="317" priority="317" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="307" priority="317" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F47))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="316" priority="318" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="306" priority="318" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131">
-    <cfRule type="notContainsText" dxfId="315" priority="189" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="305" priority="189" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F131))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="190" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="304" priority="190" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="notContainsText" dxfId="313" priority="315" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="303" priority="315" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F51))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="316" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="302" priority="316" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="notContainsText" dxfId="311" priority="313" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="301" priority="313" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F52))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="314" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="300" priority="314" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="notContainsText" dxfId="309" priority="311" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="299" priority="311" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F53))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="312" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="298" priority="312" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="notContainsText" dxfId="307" priority="309" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="297" priority="309" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F54))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="310" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="296" priority="310" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="notContainsText" dxfId="305" priority="307" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="295" priority="307" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F56))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="308" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="294" priority="308" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="notContainsText" dxfId="303" priority="305" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="293" priority="305" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F57))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="306" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="292" priority="306" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="notContainsText" dxfId="301" priority="303" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="291" priority="303" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F58))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="304" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="290" priority="304" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="notContainsText" dxfId="299" priority="301" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="289" priority="301" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F59))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="302" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="288" priority="302" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="notContainsText" dxfId="297" priority="299" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="287" priority="299" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F60))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="300" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="286" priority="300" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="notContainsText" dxfId="295" priority="297" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="285" priority="297" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F61))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="298" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="284" priority="298" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="notContainsText" dxfId="293" priority="295" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="283" priority="295" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F62))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="296" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="282" priority="296" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="notContainsText" dxfId="291" priority="293" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="281" priority="293" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F63))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="294" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="280" priority="294" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="notContainsText" dxfId="289" priority="291" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="279" priority="291" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F64))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="292" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="278" priority="292" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="notContainsText" dxfId="287" priority="289" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="277" priority="289" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F65))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="290" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="276" priority="290" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105">
-    <cfRule type="notContainsText" dxfId="285" priority="287" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="275" priority="287" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F105))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="288" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="274" priority="288" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89">
-    <cfRule type="notContainsText" dxfId="283" priority="285" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="273" priority="285" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F89))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="286" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="272" priority="286" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90">
-    <cfRule type="notContainsText" dxfId="281" priority="283" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="271" priority="283" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F90))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="284" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="270" priority="284" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91">
-    <cfRule type="notContainsText" dxfId="279" priority="281" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="269" priority="281" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F91))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="282" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="268" priority="282" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92">
-    <cfRule type="notContainsText" dxfId="277" priority="279" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="267" priority="279" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F92))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="280" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="266" priority="280" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94">
-    <cfRule type="notContainsText" dxfId="275" priority="277" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="265" priority="277" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F94))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="278" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="264" priority="278" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="notContainsText" dxfId="273" priority="275" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="263" priority="275" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F95))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="276" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="262" priority="276" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="notContainsText" dxfId="269" priority="271" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="261" priority="271" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F97))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="272" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="260" priority="272" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F97)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="notContainsText" dxfId="267" priority="269" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="259" priority="269" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F98))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="266" priority="270" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="258" priority="270" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F98)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99">
-    <cfRule type="notContainsText" dxfId="265" priority="267" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="257" priority="267" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F99))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="268" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="256" priority="268" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F99)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100">
-    <cfRule type="notContainsText" dxfId="263" priority="265" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="255" priority="265" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F100))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="266" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="254" priority="266" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101">
-    <cfRule type="notContainsText" dxfId="261" priority="263" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="253" priority="263" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F101))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="260" priority="264" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="252" priority="264" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="notContainsText" dxfId="259" priority="261" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="251" priority="261" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F102))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="262" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="250" priority="262" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103">
-    <cfRule type="notContainsText" dxfId="257" priority="259" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="249" priority="259" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F103))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="260" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="248" priority="260" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="notContainsText" dxfId="255" priority="257" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="247" priority="257" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F68))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="258" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="246" priority="258" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88">
-    <cfRule type="notContainsText" dxfId="253" priority="255" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="245" priority="255" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F88))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="256" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="244" priority="256" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="notContainsText" dxfId="249" priority="251" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="243" priority="251" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F73))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="252" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="242" priority="252" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="notContainsText" dxfId="247" priority="249" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="241" priority="249" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F75))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="250" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="240" priority="250" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="notContainsText" dxfId="245" priority="247" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="239" priority="247" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F76))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="248" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="238" priority="248" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="notContainsText" dxfId="241" priority="243" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="237" priority="243" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F78))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="244" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="236" priority="244" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="notContainsText" dxfId="239" priority="241" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="235" priority="241" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F79))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="242" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="234" priority="242" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="notContainsText" dxfId="237" priority="239" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="233" priority="239" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F80))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="240" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="232" priority="240" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81">
-    <cfRule type="notContainsText" dxfId="235" priority="237" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="231" priority="237" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F81))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="238" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="230" priority="238" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82">
-    <cfRule type="notContainsText" dxfId="233" priority="235" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="229" priority="235" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F82))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="236" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="228" priority="236" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="notContainsText" dxfId="231" priority="233" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="227" priority="233" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F83))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="234" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="226" priority="234" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84">
-    <cfRule type="notContainsText" dxfId="229" priority="231" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="225" priority="231" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F84))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="232" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="224" priority="232" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109 F124">
-    <cfRule type="notContainsText" dxfId="227" priority="229" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="223" priority="229" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F109))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="230" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="222" priority="230" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="notContainsText" dxfId="225" priority="227" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="221" priority="227" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F106))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="228" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="220" priority="228" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111">
-    <cfRule type="notContainsText" dxfId="221" priority="223" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="219" priority="223" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F111))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="224" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="218" priority="224" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F113">
-    <cfRule type="notContainsText" dxfId="219" priority="221" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="217" priority="221" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F113))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="222" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="216" priority="222" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114">
-    <cfRule type="notContainsText" dxfId="217" priority="219" operator="notContains" text="ok">
+    <cfRule type="notContainsText" dxfId="215" priority="219" operator="notContains" text="ok">
       <formula>ISERROR(SEARCH("ok",F114))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="220" operator="containsText" text="ok">
+    <cfRule type="containsText" dxfId="214" priority="220" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",F114)))</formula>
     </cfRule>
   </conditionalFormatting>
